--- a/3_Component_Results/TRDBAL/Tables/naive_tbl/AVERAGE_10_9_qoq_forecast_error_table_first_eval.xlsx
+++ b/3_Component_Results/TRDBAL/Tables/naive_tbl/AVERAGE_10_9_qoq_forecast_error_table_first_eval.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>ME</t>
   </si>
@@ -56,6 +56,9 @@
   </si>
   <si>
     <t>Q7</t>
+  </si>
+  <si>
+    <t>Q8</t>
   </si>
 </sst>
 </file>
@@ -413,7 +416,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -444,19 +447,19 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>-0.01673577493630108</v>
+        <v>-0.0409949888987393</v>
       </c>
       <c r="C2">
-        <v>0.2434346408297528</v>
+        <v>0.1649705476528477</v>
       </c>
       <c r="D2">
-        <v>0.1121372717222039</v>
+        <v>0.05860056171370987</v>
       </c>
       <c r="E2">
-        <v>0.3348690366728521</v>
+        <v>0.2420755289443976</v>
       </c>
       <c r="F2">
-        <v>0.3470757618282738</v>
+        <v>0.2475852015561247</v>
       </c>
       <c r="G2">
         <v>14</v>
@@ -467,19 +470,19 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>-0.03759745498706563</v>
+        <v>-0.0582393705973169</v>
       </c>
       <c r="C3">
-        <v>0.3033251091637053</v>
+        <v>0.2339998014479659</v>
       </c>
       <c r="D3">
-        <v>0.1653271783924669</v>
+        <v>0.1090099205812892</v>
       </c>
       <c r="E3">
-        <v>0.4066044495482887</v>
+        <v>0.3301665043296931</v>
       </c>
       <c r="F3">
-        <v>0.4213942064764014</v>
+        <v>0.33825966995519</v>
       </c>
       <c r="G3">
         <v>13</v>
@@ -490,19 +493,19 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>-0.05116125574581309</v>
+        <v>-0.05540528605858396</v>
       </c>
       <c r="C4">
-        <v>0.3219501977688589</v>
+        <v>0.2730276854007799</v>
       </c>
       <c r="D4">
-        <v>0.1751041295316076</v>
+        <v>0.1281020150765566</v>
       </c>
       <c r="E4">
-        <v>0.4184544533537761</v>
+        <v>0.357913418408079</v>
       </c>
       <c r="F4">
-        <v>0.4337825036608919</v>
+        <v>0.3693221348559199</v>
       </c>
       <c r="G4">
         <v>12</v>
@@ -513,19 +516,19 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>-0.004650698751066763</v>
+        <v>0.0007705445796656607</v>
       </c>
       <c r="C5">
-        <v>0.22237575762787</v>
+        <v>0.1970834307540707</v>
       </c>
       <c r="D5">
-        <v>0.07588683933485199</v>
+        <v>0.06344748247054742</v>
       </c>
       <c r="E5">
-        <v>0.2754756601495892</v>
+        <v>0.251887837083388</v>
       </c>
       <c r="F5">
-        <v>0.2888801332206434</v>
+        <v>0.2641809561735251</v>
       </c>
       <c r="G5">
         <v>11</v>
@@ -536,19 +539,19 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>0.0224149823582611</v>
+        <v>0.03211500412566347</v>
       </c>
       <c r="C6">
-        <v>0.2209936644068455</v>
+        <v>0.1962129447978213</v>
       </c>
       <c r="D6">
-        <v>0.06194828622503053</v>
+        <v>0.05653652986779405</v>
       </c>
       <c r="E6">
-        <v>0.2488941265378324</v>
+        <v>0.237774115218192</v>
       </c>
       <c r="F6">
-        <v>0.2612913546022894</v>
+        <v>0.2483392759418782</v>
       </c>
       <c r="G6">
         <v>10</v>
@@ -559,22 +562,22 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>-0.003639552352572801</v>
+        <v>0.01002085364717452</v>
       </c>
       <c r="C7">
-        <v>0.1741488115109719</v>
+        <v>0.1353809626663662</v>
       </c>
       <c r="D7">
-        <v>0.04487342629983543</v>
+        <v>0.02435385723373847</v>
       </c>
       <c r="E7">
-        <v>0.2118334872012341</v>
+        <v>0.1560572242279686</v>
       </c>
       <c r="F7">
-        <v>0.2287725434099549</v>
+        <v>0.1651820804193373</v>
       </c>
       <c r="G7">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -582,22 +585,22 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>0.0637217453720104</v>
+        <v>-0.02479498802512995</v>
       </c>
       <c r="C8">
-        <v>0.2653656276330555</v>
+        <v>0.2038757822666403</v>
       </c>
       <c r="D8">
-        <v>0.08339388776614459</v>
+        <v>0.05563351498145874</v>
       </c>
       <c r="E8">
-        <v>0.2887799989025289</v>
+        <v>0.2358675793352252</v>
       </c>
       <c r="F8">
-        <v>0.32523514966434</v>
+        <v>0.2569483766447083</v>
       </c>
       <c r="G8">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -605,18 +608,41 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <v>0.3011292940475628</v>
+        <v>0.1034004173967734</v>
       </c>
       <c r="C9">
-        <v>0.3011292940475628</v>
+        <v>0.1076593290439133</v>
       </c>
       <c r="D9">
-        <v>0.09067885173358356</v>
+        <v>0.0258513414274284</v>
       </c>
       <c r="E9">
-        <v>0.3011292940475628</v>
+        <v>0.1607835234948793</v>
+      </c>
+      <c r="F9">
+        <v>0.1507963615754776</v>
       </c>
       <c r="G9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10">
+        <v>-0.05594074298689113</v>
+      </c>
+      <c r="C10">
+        <v>0.05594074298689113</v>
+      </c>
+      <c r="D10">
+        <v>0.003129366725925409</v>
+      </c>
+      <c r="E10">
+        <v>0.05594074298689113</v>
+      </c>
+      <c r="G10">
         <v>1</v>
       </c>
     </row>

--- a/3_Component_Results/TRDBAL/Tables/naive_tbl/AVERAGE_10_9_qoq_forecast_error_table_first_eval.xlsx
+++ b/3_Component_Results/TRDBAL/Tables/naive_tbl/AVERAGE_10_9_qoq_forecast_error_table_first_eval.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>ME</t>
   </si>
@@ -59,6 +59,9 @@
   </si>
   <si>
     <t>Q8</t>
+  </si>
+  <si>
+    <t>Q9</t>
   </si>
 </sst>
 </file>
@@ -416,7 +419,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -447,22 +450,22 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>-0.0409949888987393</v>
+        <v>0.1340334775780207</v>
       </c>
       <c r="C2">
-        <v>0.1649705476528477</v>
+        <v>0.51771755592959</v>
       </c>
       <c r="D2">
-        <v>0.05860056171370987</v>
+        <v>0.6327526057370099</v>
       </c>
       <c r="E2">
-        <v>0.2420755289443976</v>
+        <v>0.7954574820422584</v>
       </c>
       <c r="F2">
-        <v>0.2475852015561247</v>
+        <v>0.7918859673449575</v>
       </c>
       <c r="G2">
-        <v>14</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -470,22 +473,22 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>-0.0582393705973169</v>
+        <v>-0.04416780937479916</v>
       </c>
       <c r="C3">
-        <v>0.2339998014479659</v>
+        <v>0.5817619418406447</v>
       </c>
       <c r="D3">
-        <v>0.1090099205812892</v>
+        <v>0.71848441568627</v>
       </c>
       <c r="E3">
-        <v>0.3301665043296931</v>
+        <v>0.8476346003357048</v>
       </c>
       <c r="F3">
-        <v>0.33825966995519</v>
+        <v>0.8550770464756325</v>
       </c>
       <c r="G3">
-        <v>13</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -493,22 +496,22 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>-0.05540528605858396</v>
+        <v>0.1307748531607076</v>
       </c>
       <c r="C4">
-        <v>0.2730276854007799</v>
+        <v>0.567321327886076</v>
       </c>
       <c r="D4">
-        <v>0.1281020150765566</v>
+        <v>0.6923438032425172</v>
       </c>
       <c r="E4">
-        <v>0.357913418408079</v>
+        <v>0.8320719940260681</v>
       </c>
       <c r="F4">
-        <v>0.3693221348559199</v>
+        <v>0.8302465159786168</v>
       </c>
       <c r="G4">
-        <v>12</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -516,22 +519,22 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>0.0007705445796656607</v>
+        <v>-0.05427852441735345</v>
       </c>
       <c r="C5">
-        <v>0.1970834307540707</v>
+        <v>0.5770490505655083</v>
       </c>
       <c r="D5">
-        <v>0.06344748247054742</v>
+        <v>0.6815373014256153</v>
       </c>
       <c r="E5">
-        <v>0.251887837083388</v>
+        <v>0.8255527248005516</v>
       </c>
       <c r="F5">
-        <v>0.2641809561735251</v>
+        <v>0.8324837852131098</v>
       </c>
       <c r="G5">
-        <v>11</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -539,22 +542,22 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>0.03211500412566347</v>
+        <v>0.09860079171026061</v>
       </c>
       <c r="C6">
-        <v>0.1962129447978213</v>
+        <v>0.5763606548324329</v>
       </c>
       <c r="D6">
-        <v>0.05653652986779405</v>
+        <v>0.6635861464005488</v>
       </c>
       <c r="E6">
-        <v>0.237774115218192</v>
+        <v>0.8146079709900639</v>
       </c>
       <c r="F6">
-        <v>0.2483392759418782</v>
+        <v>0.8173606705215342</v>
       </c>
       <c r="G6">
-        <v>10</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -562,22 +565,22 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>0.01002085364717452</v>
+        <v>-0.09963899298847101</v>
       </c>
       <c r="C7">
-        <v>0.1353809626663662</v>
+        <v>0.5177403320122128</v>
       </c>
       <c r="D7">
-        <v>0.02435385723373847</v>
+        <v>0.5601913235939101</v>
       </c>
       <c r="E7">
-        <v>0.1560572242279686</v>
+        <v>0.7484592998913903</v>
       </c>
       <c r="F7">
-        <v>0.1651820804193373</v>
+        <v>0.7499943133832871</v>
       </c>
       <c r="G7">
-        <v>9</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -585,22 +588,22 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>-0.02479498802512995</v>
+        <v>0.04033191057269756</v>
       </c>
       <c r="C8">
-        <v>0.2038757822666403</v>
+        <v>0.5192072963624517</v>
       </c>
       <c r="D8">
-        <v>0.05563351498145874</v>
+        <v>0.5728721284028437</v>
       </c>
       <c r="E8">
-        <v>0.2358675793352252</v>
+        <v>0.7568831669437786</v>
       </c>
       <c r="F8">
-        <v>0.2569483766447083</v>
+        <v>0.764348295529329</v>
       </c>
       <c r="G8">
-        <v>6</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -608,22 +611,22 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <v>0.1034004173967734</v>
+        <v>-0.05085408857912471</v>
       </c>
       <c r="C9">
-        <v>0.1076593290439133</v>
+        <v>0.4865973670774532</v>
       </c>
       <c r="D9">
-        <v>0.0258513414274284</v>
+        <v>0.5115951227155482</v>
       </c>
       <c r="E9">
-        <v>0.1607835234948793</v>
+        <v>0.71525878024359</v>
       </c>
       <c r="F9">
-        <v>0.1507963615754776</v>
+        <v>0.721696891105934</v>
       </c>
       <c r="G9">
-        <v>3</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -631,19 +634,45 @@
         <v>14</v>
       </c>
       <c r="B10">
-        <v>-0.05594074298689113</v>
+        <v>0.0175971372297503</v>
       </c>
       <c r="C10">
-        <v>0.05594074298689113</v>
+        <v>0.5253937883667443</v>
       </c>
       <c r="D10">
-        <v>0.003129366725925409</v>
+        <v>0.5760576781307024</v>
       </c>
       <c r="E10">
-        <v>0.05594074298689113</v>
+        <v>0.7589846362942417</v>
+      </c>
+      <c r="F10">
+        <v>0.7677605779513007</v>
       </c>
       <c r="G10">
-        <v>1</v>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11">
+        <v>-0.03005877115108942</v>
+      </c>
+      <c r="C11">
+        <v>0.4860398704780853</v>
+      </c>
+      <c r="D11">
+        <v>0.4986732487203297</v>
+      </c>
+      <c r="E11">
+        <v>0.7061680031836119</v>
+      </c>
+      <c r="F11">
+        <v>0.7140801382553689</v>
+      </c>
+      <c r="G11">
+        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/3_Component_Results/TRDBAL/Tables/naive_tbl/AVERAGE_10_9_qoq_forecast_error_table_first_eval.xlsx
+++ b/3_Component_Results/TRDBAL/Tables/naive_tbl/AVERAGE_10_9_qoq_forecast_error_table_first_eval.xlsx
@@ -450,22 +450,22 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>0.1340334775780207</v>
+        <v>-0.06847097740271614</v>
       </c>
       <c r="C2">
-        <v>0.51771755592959</v>
+        <v>0.6620077945808225</v>
       </c>
       <c r="D2">
-        <v>0.6327526057370099</v>
+        <v>0.8576394255630952</v>
       </c>
       <c r="E2">
-        <v>0.7954574820422584</v>
+        <v>0.9260882385405266</v>
       </c>
       <c r="F2">
-        <v>0.7918859673449575</v>
+        <v>0.9347485423480986</v>
       </c>
       <c r="G2">
-        <v>51</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -473,22 +473,22 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>-0.04416780937479916</v>
+        <v>0.1628294350496699</v>
       </c>
       <c r="C3">
-        <v>0.5817619418406447</v>
+        <v>0.6137740522511609</v>
       </c>
       <c r="D3">
-        <v>0.71848441568627</v>
+        <v>0.7803318254486972</v>
       </c>
       <c r="E3">
-        <v>0.8476346003357048</v>
+        <v>0.8833639258248535</v>
       </c>
       <c r="F3">
-        <v>0.8550770464756325</v>
+        <v>0.8790130036258593</v>
       </c>
       <c r="G3">
-        <v>50</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -496,22 +496,22 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>0.1307748531607076</v>
+        <v>-0.06854388644398214</v>
       </c>
       <c r="C4">
-        <v>0.567321327886076</v>
+        <v>0.6834144119998282</v>
       </c>
       <c r="D4">
-        <v>0.6923438032425172</v>
+        <v>0.8849781572300088</v>
       </c>
       <c r="E4">
-        <v>0.8320719940260681</v>
+        <v>0.9407327767384364</v>
       </c>
       <c r="F4">
-        <v>0.8302465159786168</v>
+        <v>0.9501848094793431</v>
       </c>
       <c r="G4">
-        <v>49</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -519,22 +519,22 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>-0.05427852441735345</v>
+        <v>0.1479423124587954</v>
       </c>
       <c r="C5">
-        <v>0.5770490505655083</v>
+        <v>0.6621921511100777</v>
       </c>
       <c r="D5">
-        <v>0.6815373014256153</v>
+        <v>0.852793974404251</v>
       </c>
       <c r="E5">
-        <v>0.8255527248005516</v>
+        <v>0.9234684479744021</v>
       </c>
       <c r="F5">
-        <v>0.8324837852131098</v>
+        <v>0.9234571032261442</v>
       </c>
       <c r="G5">
-        <v>48</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -542,22 +542,22 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>0.09860079171026061</v>
+        <v>-0.08040621195020153</v>
       </c>
       <c r="C6">
-        <v>0.5763606548324329</v>
+        <v>0.6834744100144207</v>
       </c>
       <c r="D6">
-        <v>0.6635861464005488</v>
+        <v>0.8476544914969599</v>
       </c>
       <c r="E6">
-        <v>0.8146079709900639</v>
+        <v>0.920681536415801</v>
       </c>
       <c r="F6">
-        <v>0.8173606705215342</v>
+        <v>0.9294752172076342</v>
       </c>
       <c r="G6">
-        <v>47</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -565,22 +565,22 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>-0.09963899298847101</v>
+        <v>0.1165699234898814</v>
       </c>
       <c r="C7">
-        <v>0.5177403320122128</v>
+        <v>0.6791032791661118</v>
       </c>
       <c r="D7">
-        <v>0.5601913235939101</v>
+        <v>0.8276536103283203</v>
       </c>
       <c r="E7">
-        <v>0.7484592998913903</v>
+        <v>0.9097546978874692</v>
       </c>
       <c r="F7">
-        <v>0.7499943133832871</v>
+        <v>0.9147010340487955</v>
       </c>
       <c r="G7">
-        <v>46</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -588,22 +588,22 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>0.04033191057269756</v>
+        <v>-0.1318557986420442</v>
       </c>
       <c r="C8">
-        <v>0.5192072963624517</v>
+        <v>0.6256777560484761</v>
       </c>
       <c r="D8">
-        <v>0.5728721284028437</v>
+        <v>0.7095626088736116</v>
       </c>
       <c r="E8">
-        <v>0.7568831669437786</v>
+        <v>0.8423553934495888</v>
       </c>
       <c r="F8">
-        <v>0.764348295529329</v>
+        <v>0.843773152665554</v>
       </c>
       <c r="G8">
-        <v>45</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -611,22 +611,22 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <v>-0.05085408857912471</v>
+        <v>0.04870157088247548</v>
       </c>
       <c r="C9">
-        <v>0.4865973670774532</v>
+        <v>0.6198098084369814</v>
       </c>
       <c r="D9">
-        <v>0.5115951227155482</v>
+        <v>0.7254827416971069</v>
       </c>
       <c r="E9">
-        <v>0.71525878024359</v>
+        <v>0.8517527468092527</v>
       </c>
       <c r="F9">
-        <v>0.721696891105934</v>
+        <v>0.8627739369610303</v>
       </c>
       <c r="G9">
-        <v>44</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -634,22 +634,22 @@
         <v>14</v>
       </c>
       <c r="B10">
-        <v>0.0175971372297503</v>
+        <v>-0.06798252598835164</v>
       </c>
       <c r="C10">
-        <v>0.5253937883667443</v>
+        <v>0.5847756573626377</v>
       </c>
       <c r="D10">
-        <v>0.5760576781307024</v>
+        <v>0.6476270503415246</v>
       </c>
       <c r="E10">
-        <v>0.7589846362942417</v>
+        <v>0.8047527883403229</v>
       </c>
       <c r="F10">
-        <v>0.7677605779513007</v>
+        <v>0.8139351567699135</v>
       </c>
       <c r="G10">
-        <v>43</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -657,22 +657,22 @@
         <v>15</v>
       </c>
       <c r="B11">
-        <v>-0.03005877115108942</v>
+        <v>0.01270493608304687</v>
       </c>
       <c r="C11">
-        <v>0.4860398704780853</v>
+        <v>0.6241980251273542</v>
       </c>
       <c r="D11">
-        <v>0.4986732487203297</v>
+        <v>0.7283763178587769</v>
       </c>
       <c r="E11">
-        <v>0.7061680031836119</v>
+        <v>0.853449657483543</v>
       </c>
       <c r="F11">
-        <v>0.7140801382553689</v>
+        <v>0.8665861862271473</v>
       </c>
       <c r="G11">
-        <v>42</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/3_Component_Results/TRDBAL/Tables/naive_tbl/AVERAGE_10_9_qoq_forecast_error_table_first_eval.xlsx
+++ b/3_Component_Results/TRDBAL/Tables/naive_tbl/AVERAGE_10_9_qoq_forecast_error_table_first_eval.xlsx
@@ -450,22 +450,22 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>-0.06847097740271614</v>
+        <v>0.007649031253165467</v>
       </c>
       <c r="C2">
-        <v>0.6620077945808225</v>
+        <v>0.7060764589429129</v>
       </c>
       <c r="D2">
-        <v>0.8576394255630952</v>
+        <v>1.09292080587746</v>
       </c>
       <c r="E2">
-        <v>0.9260882385405266</v>
+        <v>1.045428527388391</v>
       </c>
       <c r="F2">
-        <v>0.9347485423480986</v>
+        <v>1.055802796057253</v>
       </c>
       <c r="G2">
-        <v>42</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -473,22 +473,22 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>0.1628294350496699</v>
+        <v>0.1975818930959411</v>
       </c>
       <c r="C3">
-        <v>0.6137740522511609</v>
+        <v>0.6676882907705637</v>
       </c>
       <c r="D3">
-        <v>0.7803318254486972</v>
+        <v>0.9882928130720809</v>
       </c>
       <c r="E3">
-        <v>0.8833639258248535</v>
+        <v>0.9941291732325739</v>
       </c>
       <c r="F3">
-        <v>0.8790130036258593</v>
+        <v>0.9841883678757558</v>
       </c>
       <c r="G3">
-        <v>41</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -496,22 +496,22 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>-0.06854388644398214</v>
+        <v>0.01857348150839668</v>
       </c>
       <c r="C4">
-        <v>0.6834144119998282</v>
+        <v>0.6965285593079298</v>
       </c>
       <c r="D4">
-        <v>0.8849781572300088</v>
+        <v>1.031947222433671</v>
       </c>
       <c r="E4">
-        <v>0.9407327767384364</v>
+        <v>1.015848031170839</v>
       </c>
       <c r="F4">
-        <v>0.9501848094793431</v>
+        <v>1.026203664836019</v>
       </c>
       <c r="G4">
-        <v>40</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -519,22 +519,22 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>0.1479423124587954</v>
+        <v>0.197272805308272</v>
       </c>
       <c r="C5">
-        <v>0.6621921511100777</v>
+        <v>0.6719669695526704</v>
       </c>
       <c r="D5">
-        <v>0.852793974404251</v>
+        <v>1.016022479395869</v>
       </c>
       <c r="E5">
-        <v>0.9234684479744021</v>
+        <v>1.007979404251828</v>
       </c>
       <c r="F5">
-        <v>0.9234571032261442</v>
+        <v>0.9989471494200659</v>
       </c>
       <c r="G5">
-        <v>39</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -542,22 +542,22 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>-0.08040621195020153</v>
+        <v>0.008725544551307194</v>
       </c>
       <c r="C6">
-        <v>0.6834744100144207</v>
+        <v>0.6890175284598777</v>
       </c>
       <c r="D6">
-        <v>0.8476544914969599</v>
+        <v>1.005961649362776</v>
       </c>
       <c r="E6">
-        <v>0.920681536415801</v>
+        <v>1.002976395217144</v>
       </c>
       <c r="F6">
-        <v>0.9294752172076342</v>
+        <v>1.01378133274956</v>
       </c>
       <c r="G6">
-        <v>38</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -565,22 +565,22 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>0.1165699234898814</v>
+        <v>0.1656324924955881</v>
       </c>
       <c r="C7">
-        <v>0.6791032791661118</v>
+        <v>0.7121334300484996</v>
       </c>
       <c r="D7">
-        <v>0.8276536103283203</v>
+        <v>1.009049436880241</v>
       </c>
       <c r="E7">
-        <v>0.9097546978874692</v>
+        <v>1.004514527958775</v>
       </c>
       <c r="F7">
-        <v>0.9147010340487955</v>
+        <v>1.001713026750313</v>
       </c>
       <c r="G7">
-        <v>37</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -588,22 +588,22 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>-0.1318557986420442</v>
+        <v>-0.03355332013530137</v>
       </c>
       <c r="C8">
-        <v>0.6256777560484761</v>
+        <v>0.6655533201353013</v>
       </c>
       <c r="D8">
-        <v>0.7095626088736116</v>
+        <v>0.9216836371613637</v>
       </c>
       <c r="E8">
-        <v>0.8423553934495888</v>
+        <v>0.9600435600332746</v>
       </c>
       <c r="F8">
-        <v>0.843773152665554</v>
+        <v>0.9702987067500585</v>
       </c>
       <c r="G8">
-        <v>36</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -611,22 +611,22 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <v>0.04870157088247548</v>
+        <v>0.1120563280973417</v>
       </c>
       <c r="C9">
-        <v>0.6198098084369814</v>
+        <v>0.6615800355390219</v>
       </c>
       <c r="D9">
-        <v>0.7254827416971069</v>
+        <v>0.9519011468707899</v>
       </c>
       <c r="E9">
-        <v>0.8517527468092527</v>
+        <v>0.9756542148070646</v>
       </c>
       <c r="F9">
-        <v>0.8627739369610303</v>
+        <v>0.980402849722379</v>
       </c>
       <c r="G9">
-        <v>35</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -634,22 +634,22 @@
         <v>14</v>
       </c>
       <c r="B10">
-        <v>-0.06798252598835164</v>
+        <v>0.02418838590491716</v>
       </c>
       <c r="C10">
-        <v>0.5847756573626377</v>
+        <v>0.6296238101770754</v>
       </c>
       <c r="D10">
-        <v>0.6476270503415246</v>
+        <v>0.8605132227654934</v>
       </c>
       <c r="E10">
-        <v>0.8047527883403229</v>
+        <v>0.9276385194489788</v>
       </c>
       <c r="F10">
-        <v>0.8139351567699135</v>
+        <v>0.9382977269448005</v>
       </c>
       <c r="G10">
-        <v>34</v>
+        <v>43</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -657,22 +657,22 @@
         <v>15</v>
       </c>
       <c r="B11">
-        <v>0.01270493608304687</v>
+        <v>0.09524948657816748</v>
       </c>
       <c r="C11">
-        <v>0.6241980251273542</v>
+        <v>0.6695304106776226</v>
       </c>
       <c r="D11">
-        <v>0.7283763178587769</v>
+        <v>0.9431468323975638</v>
       </c>
       <c r="E11">
-        <v>0.853449657483543</v>
+        <v>0.9711574704431634</v>
       </c>
       <c r="F11">
-        <v>0.8665861862271473</v>
+        <v>0.9781905077005605</v>
       </c>
       <c r="G11">
-        <v>33</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/3_Component_Results/TRDBAL/Tables/naive_tbl/AVERAGE_10_9_qoq_forecast_error_table_first_eval.xlsx
+++ b/3_Component_Results/TRDBAL/Tables/naive_tbl/AVERAGE_10_9_qoq_forecast_error_table_first_eval.xlsx
@@ -565,22 +565,22 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>0.1656324924955881</v>
+        <v>0.1048293742242156</v>
       </c>
       <c r="C7">
-        <v>0.7121334300484996</v>
+        <v>0.6683285205126266</v>
       </c>
       <c r="D7">
-        <v>1.009049436880241</v>
+        <v>0.9396403565264032</v>
       </c>
       <c r="E7">
-        <v>1.004514527958775</v>
+        <v>0.9693504817796312</v>
       </c>
       <c r="F7">
-        <v>1.001713026750313</v>
+        <v>0.9766011666972538</v>
       </c>
       <c r="G7">
-        <v>46</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -588,22 +588,22 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>-0.03355332013530137</v>
+        <v>0.07359833454455669</v>
       </c>
       <c r="C8">
-        <v>0.6655533201353013</v>
+        <v>0.6734286924824703</v>
       </c>
       <c r="D8">
-        <v>0.9216836371613637</v>
+        <v>0.9899493426166667</v>
       </c>
       <c r="E8">
-        <v>0.9600435600332746</v>
+        <v>0.9949619804880319</v>
       </c>
       <c r="F8">
-        <v>0.9702987067500585</v>
+        <v>1.005922838153142</v>
       </c>
       <c r="G8">
-        <v>45</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -611,22 +611,22 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <v>0.1120563280973417</v>
+        <v>0.134</v>
       </c>
       <c r="C9">
-        <v>0.6615800355390219</v>
+        <v>0.7460000000000001</v>
       </c>
       <c r="D9">
-        <v>0.9519011468707899</v>
+        <v>1.49462</v>
       </c>
       <c r="E9">
-        <v>0.9756542148070646</v>
+        <v>1.222546522632165</v>
       </c>
       <c r="F9">
-        <v>0.980402849722379</v>
+        <v>1.246749035650213</v>
       </c>
       <c r="G9">
-        <v>44</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -634,22 +634,22 @@
         <v>14</v>
       </c>
       <c r="B10">
-        <v>0.02418838590491716</v>
+        <v>-0.2623076923076923</v>
       </c>
       <c r="C10">
-        <v>0.6296238101770754</v>
+        <v>0.6884615384615385</v>
       </c>
       <c r="D10">
-        <v>0.8605132227654934</v>
+        <v>1.410730769230769</v>
       </c>
       <c r="E10">
-        <v>0.9276385194489788</v>
+        <v>1.187741878200297</v>
       </c>
       <c r="F10">
-        <v>0.9382977269448005</v>
+        <v>1.205716618489836</v>
       </c>
       <c r="G10">
-        <v>43</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -657,22 +657,22 @@
         <v>15</v>
       </c>
       <c r="B11">
-        <v>0.09524948657816748</v>
+        <v>-0.06799999999999998</v>
       </c>
       <c r="C11">
-        <v>0.6695304106776226</v>
+        <v>0.5</v>
       </c>
       <c r="D11">
-        <v>0.9431468323975638</v>
+        <v>0.37436</v>
       </c>
       <c r="E11">
-        <v>0.9711574704431634</v>
+        <v>0.6118496547355404</v>
       </c>
       <c r="F11">
-        <v>0.9781905077005605</v>
+        <v>0.6798308613177252</v>
       </c>
       <c r="G11">
-        <v>42</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
